--- a/biology/Médecine/Tympanoplastie/Tympanoplastie.xlsx
+++ b/biology/Médecine/Tympanoplastie/Tympanoplastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une tympanoplastie est une opération de chirurgie plastique du tympan et éventuellement des osselets[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une tympanoplastie est une opération de chirurgie plastique du tympan et éventuellement des osselets.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1956, Wullstein classe les tympanoplasties en 5 types selon les dommages trouvés dans l'oreille moyenne et la méthode reconstruction[2],[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1956, Wullstein classe les tympanoplasties en 5 types selon les dommages trouvés dans l'oreille moyenne et la méthode reconstruction,:
 Le type I consiste en une simple greffe de tissu et s'appelle aussi myringoplastie.
 Le type II est réalisé lorsque le marteau est érodé, la greffe de la membrane tympanique se fait alors au niveau de l'enclume.
 Le type III est réalisé lorsque le marteau est l'enclume sont érodés, la greffe de la membrane tympanique se fait alors au niveau de l'étrier.
